--- a/pm_notes/4.文档模板/3.表格模板.xlsx
+++ b/pm_notes/4.文档模板/3.表格模板.xlsx
@@ -4,26 +4,126 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10500"/>
+    <workbookView windowWidth="23895" windowHeight="10500" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="用户画像" sheetId="1" r:id="rId1"/>
     <sheet name="需求单项卡" sheetId="2" r:id="rId2"/>
     <sheet name="需求池" sheetId="3" r:id="rId3"/>
+    <sheet name="竞品分析关注点" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+  <si>
+    <t>竞品分析在产品设计各阶段关注点</t>
+  </si>
+  <si>
+    <t>阶段</t>
+  </si>
+  <si>
+    <t>工作</t>
+  </si>
+  <si>
+    <t>主要分析人</t>
+  </si>
+  <si>
+    <t>竞品分析目的</t>
+  </si>
+  <si>
+    <t>关注点</t>
+  </si>
+  <si>
+    <t>战略层</t>
+  </si>
+  <si>
+    <t>确定选题（确定验证idea能否赚钱）</t>
+  </si>
+  <si>
+    <t>产品经理</t>
+  </si>
+  <si>
+    <t>确定方向了解市场</t>
+  </si>
+  <si>
+    <t>相应领域的市场发展状况
+竞品商业模式、产品定位、盈利模式</t>
+  </si>
+  <si>
+    <t>范围层</t>
+  </si>
+  <si>
+    <t>产品定位：用户需求与产品需求转化</t>
+  </si>
+  <si>
+    <t>用户研究员</t>
+  </si>
+  <si>
+    <t>指导需求优先级排序
+产品差异点</t>
+  </si>
+  <si>
+    <t>竞品的目标人群，满足市民需求，用户满意度如何？
+竞品的主要功能，信息架构，特色功能，发展模式，优缺点</t>
+  </si>
+  <si>
+    <t>结构层与范围层</t>
+  </si>
+  <si>
+    <t>页面流程设计
+页面内容设计</t>
+  </si>
+  <si>
+    <t>交互设计师</t>
+  </si>
+  <si>
+    <t>用户体验</t>
+  </si>
+  <si>
+    <t>任务流程，页面框架，交互动作</t>
+  </si>
+  <si>
+    <t>表现层</t>
+  </si>
+  <si>
+    <t>视觉效果</t>
+  </si>
+  <si>
+    <t>视觉设计师</t>
+  </si>
+  <si>
+    <t>用户体验（产品独特性）</t>
+  </si>
+  <si>
+    <t>语言风格，色彩，颜色层级，页面细节</t>
+  </si>
+  <si>
+    <t>验证与测试</t>
+  </si>
+  <si>
+    <t>可用性测试</t>
+  </si>
+  <si>
+    <t>验证产品可行性</t>
+  </si>
+  <si>
+    <t>用户满意度</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -32,8 +132,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -63,15 +201,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -79,21 +238,15 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,14 +277,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -139,43 +284,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
@@ -183,7 +291,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,6 +300,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -204,13 +354,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -222,31 +408,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -256,133 +490,28 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -406,6 +535,30 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,183 +612,174 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -987,7 +1131,7 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="$A2:$XFD2"/>
     </sheetView>
   </sheetViews>
@@ -1034,4 +1178,143 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="21" customHeight="1" outlineLevelRow="6" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="2" max="2" width="17.75" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="4" max="4" width="24.75" customWidth="1"/>
+    <col min="5" max="5" width="51.875" customWidth="1"/>
+    <col min="6" max="16384" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="35" customHeight="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" ht="35" customHeight="1" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" ht="35" customHeight="1" spans="1:5">
+      <c r="A3" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" ht="35" customHeight="1" spans="1:5">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" ht="35" customHeight="1" spans="1:5">
+      <c r="A5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" ht="35" customHeight="1" spans="1:5">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" ht="35" customHeight="1" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/pm_notes/4.文档模板/3.表格模板.xlsx
+++ b/pm_notes/4.文档模板/3.表格模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10500" activeTab="3"/>
+    <workbookView windowWidth="23280" windowHeight="10500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="用户画像" sheetId="1" r:id="rId1"/>
@@ -16,8 +16,229 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>aipai</author>
+  </authors>
+  <commentList>
+    <comment ref="B2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>项目模块如下：
+我
+首页
+社区
+...</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+  <si>
+    <t>需求单项卡</t>
+  </si>
+  <si>
+    <t>需求编号</t>
+  </si>
+  <si>
+    <t>需求类型</t>
+  </si>
+  <si>
+    <t>项目+采集时间+采集者</t>
+  </si>
+  <si>
+    <t>功能需求/非功能需求</t>
+  </si>
+  <si>
+    <t>来源（who）_方便追根溯源</t>
+  </si>
+  <si>
+    <r>
+      <t>产生需求的用户及用户属性
+（联系方式+背景资料）——&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>背景资料记录影响该需求的用户属性。比如：母婴产品_记录是否有孩子</t>
+    </r>
+  </si>
+  <si>
+    <t>老板提出的需求；
+用户直接反馈的需求；
+公司内部同事反馈的需求；
+通过数据分析／问卷调查得到的需求；
+自我驱动产生的需求</t>
+  </si>
+  <si>
+    <t>需求产生场景（when&amp;where）_方便充分理解需求</t>
+  </si>
+  <si>
+    <t>时间、空间</t>
+  </si>
+  <si>
+    <t>需求描述（what）</t>
+  </si>
+  <si>
+    <t>客观描述（主+谓+宾）切忌加入主观修饰词（我认为、我想？）</t>
+  </si>
+  <si>
+    <t>需求原因（why）</t>
+  </si>
+  <si>
+    <t>为什么要提这个需求？</t>
+  </si>
+  <si>
+    <t>验收标准（how）</t>
+  </si>
+  <si>
+    <t>需求重要性</t>
+  </si>
+  <si>
+    <t>如何确认该需求被满足？
+（可量化的语句；不可量化则举例）</t>
+  </si>
+  <si>
+    <t>满足后（1-5：一般到非常满意？）
+未实现（1-5：略感遗憾到非常懊恼？）</t>
+  </si>
+  <si>
+    <t>需求生命特征</t>
+  </si>
+  <si>
+    <t>需求关系</t>
+  </si>
+  <si>
+    <t>需求持续时间</t>
+  </si>
+  <si>
+    <t>需求与外界的联系
+与需求关联的人
+与需求关联的业务/其他需求
+与需求关联的设备/其他产品</t>
+  </si>
+  <si>
+    <t>参考材料（备注）</t>
+  </si>
+  <si>
+    <t>竞争者对比</t>
+  </si>
+  <si>
+    <t>与需求相关的引用材料？</t>
+  </si>
+  <si>
+    <t>按照（1-10分评比）
+竞品是否满足该需求？
+怎么满足该需求的？
+用户对竞品此满足方式的满意度？</t>
+  </si>
+  <si>
+    <t>需求池描述：（某个项目？）
+需求优先级：A&gt;B&gt;C&gt;D
+需求层次：基础/扩展/增值
+需求分类：新增功能、功能优化、体验提升、bug修复、内部需求
+开发量单位：人/天
+产品现阶段OKR：视频发布功能的频次增加一倍
+性价比：需求对OKR的影响占比/开发量
+需求状态分为：确认开发、待讨论、被拒绝、暂缓（待讨论7拒绝&amp;暂缓状态需要在备注中给出原因）</t>
+  </si>
+  <si>
+    <t>编号</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>子模块</t>
+  </si>
+  <si>
+    <t>功能点</t>
+  </si>
+  <si>
+    <t>任务描述</t>
+  </si>
+  <si>
+    <t>价值描述</t>
+  </si>
+  <si>
+    <t>需求层次</t>
+  </si>
+  <si>
+    <t>需求分类</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>提交时间</t>
+  </si>
+  <si>
+    <t>提交人</t>
+  </si>
+  <si>
+    <t>开发量</t>
+  </si>
+  <si>
+    <t>性价比</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>A0001</t>
+  </si>
+  <si>
+    <t>社区</t>
+  </si>
+  <si>
+    <t>视频（UGC）</t>
+  </si>
+  <si>
+    <t>本地视频上传</t>
+  </si>
+  <si>
+    <t>用户可以从手机本地文件夹中选择50M以下的视频发布</t>
+  </si>
+  <si>
+    <t>降低发布视频门槛，旨在提高社区视频发布量</t>
+  </si>
+  <si>
+    <t>扩展</t>
+  </si>
+  <si>
+    <t>新增功能</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>sentea</t>
+  </si>
+  <si>
+    <t>3人/天</t>
+  </si>
+  <si>
+    <t>暂缓</t>
+  </si>
+  <si>
+    <t>当前开发工程师资源不足，下个版本再讨论</t>
+  </si>
   <si>
     <t>竞品分析在产品设计各阶段关注点</t>
   </si>
@@ -118,12 +339,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="28">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -147,8 +368,134 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="4"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -162,26 +509,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -193,81 +532,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -276,22 +540,21 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,186 +575,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -515,26 +790,71 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="medium">
+        <color theme="1"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="medium">
+        <color theme="1"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="medium">
+        <color theme="1"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
+      <top style="medium">
+        <color theme="1"/>
+      </top>
+      <bottom style="medium">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="1"/>
+      </left>
+      <right style="medium">
+        <color theme="1"/>
+      </right>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,15 +874,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -578,17 +889,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,15 +941,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -620,10 +949,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,141 +961,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -779,6 +1105,75 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1149,14 +1544,153 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="42.625" customWidth="1"/>
+    <col min="2" max="2" width="47.7166666666667" customWidth="1"/>
+    <col min="3" max="3" width="36.4083333333333" customWidth="1"/>
+    <col min="4" max="16384" width="10.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="28" customHeight="1" spans="1:2">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13"/>
+    </row>
+    <row r="2" ht="20" customHeight="1" spans="1:2">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" ht="33" customHeight="1" spans="1:2">
+      <c r="A3" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" ht="19" customHeight="1" spans="1:2">
+      <c r="A4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="15"/>
+    </row>
+    <row r="5" ht="33" customHeight="1" spans="1:3">
+      <c r="A5" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="18"/>
+      <c r="C5" s="19" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:2">
+      <c r="A6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15"/>
+    </row>
+    <row r="7" ht="35" customHeight="1" spans="1:2">
+      <c r="A7" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="18"/>
+    </row>
+    <row r="8" ht="18" customHeight="1" spans="1:2">
+      <c r="A8" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="22"/>
+    </row>
+    <row r="9" ht="39" customHeight="1" spans="1:2">
+      <c r="A9" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="18"/>
+    </row>
+    <row r="10" ht="20" customHeight="1" spans="1:2">
+      <c r="A10" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="22"/>
+    </row>
+    <row r="11" ht="38" customHeight="1" spans="1:2">
+      <c r="A11" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="18"/>
+    </row>
+    <row r="12" ht="20" customHeight="1" spans="1:2">
+      <c r="A12" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" ht="54" customHeight="1" spans="1:2">
+      <c r="A13" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" ht="18" customHeight="1" spans="1:2">
+      <c r="A14" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" ht="59" customHeight="1" spans="1:2">
+      <c r="A15" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" ht="20" customHeight="1" spans="1:2">
+      <c r="A16" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" ht="63" customHeight="1" spans="1:2">
+      <c r="A17" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
@@ -1166,17 +1700,277 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="21" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="11.375" style="6"/>
+    <col min="2" max="2" width="11.375" style="6" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="6" customWidth="1"/>
+    <col min="4" max="14" width="11.375" style="6" customWidth="1"/>
+    <col min="15" max="15" width="18.625" style="6" customWidth="1"/>
+    <col min="16" max="16384" width="11.375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="108" customHeight="1" spans="1:15">
+      <c r="A1" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
+      <c r="N1" s="8"/>
+      <c r="O1" s="8"/>
+    </row>
+    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A2" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="I2" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="J2" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="L2" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:15">
+      <c r="A3" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="J3" s="11">
+        <v>43132</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="M3" s="10"/>
+      <c r="N3" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:15">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="10"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="10"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:15">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="10"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:15">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:15">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:15">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:15">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="10"/>
+      <c r="D9" s="10"/>
+      <c r="E9" s="10"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:15">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:15">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1185,8 +1979,8 @@
   <sheetPr/>
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="21" customHeight="1" outlineLevelRow="6" outlineLevelCol="4"/>
@@ -1201,113 +1995,113 @@
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+        <v>55</v>
+      </c>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:5">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>5</v>
+      <c r="A2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:5">
-      <c r="A3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>10</v>
+      <c r="A3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:5">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>15</v>
+      <c r="A4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:5">
-      <c r="A5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>20</v>
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:5">
-      <c r="A6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>25</v>
+      <c r="A6" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:5">
-      <c r="A7" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>29</v>
+      <c r="A7" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/pm_notes/4.文档模板/3.表格模板.xlsx
+++ b/pm_notes/4.文档模板/3.表格模板.xlsx
@@ -4,14 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23280" windowHeight="10500" activeTab="2"/>
+    <workbookView windowWidth="23895" windowHeight="10500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="用户画像" sheetId="1" r:id="rId1"/>
     <sheet name="需求单项卡" sheetId="2" r:id="rId2"/>
     <sheet name="需求池" sheetId="3" r:id="rId3"/>
     <sheet name="竞品分析关注点" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">需求池!$A$2:$O$3</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -64,6 +68,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>产生需求的用户及用户属性
 （联系方式+背景资料）——&gt;</t>
     </r>
@@ -71,6 +80,7 @@
       <rPr>
         <sz val="10"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>背景资料记录影响该需求的用户属性。比如：母婴产品_记录是否有孩子</t>
@@ -411,14 +421,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -426,6 +443,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,7 +472,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -493,6 +517,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -501,37 +549,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -540,18 +557,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="36">
@@ -587,85 +596,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -689,13 +722,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,13 +746,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -725,43 +764,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -874,6 +883,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -885,30 +903,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -931,6 +925,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -949,149 +958,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1126,9 +1135,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
@@ -1562,120 +1568,120 @@
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="12"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:2">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="15"/>
+      <c r="B4" s="14"/>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:3">
-      <c r="A5" s="17" t="s">
+      <c r="A5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="19" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:2">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="18"/>
+      <c r="B7" s="17"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:2">
-      <c r="A8" s="21" t="s">
+      <c r="A8" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="22"/>
+      <c r="B8" s="21"/>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:2">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="18"/>
+      <c r="B9" s="17"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:2">
-      <c r="A10" s="21" t="s">
+      <c r="A10" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="22"/>
+      <c r="B10" s="21"/>
     </row>
     <row r="11" ht="38" customHeight="1" spans="1:2">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="18"/>
+      <c r="B11" s="17"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="14" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" ht="54" customHeight="1" spans="1:2">
-      <c r="A13" s="23" t="s">
+      <c r="A13" s="22" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="22" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="14" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" ht="59" customHeight="1" spans="1:2">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="25" t="s">
+      <c r="B15" s="24" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:2">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="14" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" ht="63" customHeight="1" spans="1:2">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="26" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1702,8 +1708,8 @@
   <sheetPr/>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:O1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="21" customHeight="1"/>
@@ -1712,7 +1718,7 @@
     <col min="2" max="2" width="11.375" style="6" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="6" customWidth="1"/>
     <col min="4" max="14" width="11.375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="18.625" style="6" customWidth="1"/>
+    <col min="15" max="15" width="28.875" style="6" customWidth="1"/>
     <col min="16" max="16384" width="11.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1964,6 +1970,7 @@
       <c r="O11" s="10"/>
     </row>
   </sheetData>
+  <autoFilter ref="A2:O3"/>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
@@ -2111,4 +2118,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/pm_notes/4.文档模板/3.表格模板.xlsx
+++ b/pm_notes/4.文档模板/3.表格模板.xlsx
@@ -11,7 +11,7 @@
     <sheet name="需求单项卡" sheetId="2" r:id="rId2"/>
     <sheet name="需求池" sheetId="3" r:id="rId3"/>
     <sheet name="竞品分析关注点" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="产品设计体验记录" sheetId="5" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">需求池!$A$2:$O$3</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
   <si>
     <t>需求单项卡</t>
   </si>
@@ -71,6 +71,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>产生需求的用户及用户属性
@@ -343,21 +344,100 @@
   <si>
     <t>用户满意度</t>
   </si>
+  <si>
+    <t>用户体验设计</t>
+  </si>
+  <si>
+    <t>APP名称</t>
+  </si>
+  <si>
+    <t>现象</t>
+  </si>
+  <si>
+    <t>分类</t>
+  </si>
+  <si>
+    <t>困境（环境）</t>
+  </si>
+  <si>
+    <t>设计目的</t>
+  </si>
+  <si>
+    <t>设计描述</t>
+  </si>
+  <si>
+    <t>图片</t>
+  </si>
+  <si>
+    <t>CXS0001</t>
+  </si>
+  <si>
+    <t>新浪微博</t>
+  </si>
+  <si>
+    <t>网络不佳的时候，有弹窗“当前网络状态不佳，感谢您的等待”</t>
+  </si>
+  <si>
+    <t>网络</t>
+  </si>
+  <si>
+    <t>网络状态不佳，会导致用户直接退出</t>
+  </si>
+  <si>
+    <t>减少用户的等待焦虑</t>
+  </si>
+  <si>
+    <t>检测用户手机的网络状态，当网速低于某个值时或者是加载时间到一定值时，触发弹窗提示“网络状态不佳，感谢您的等待”。</t>
+  </si>
+  <si>
+    <t>CXS0002</t>
+  </si>
+  <si>
+    <t>CXS0003</t>
+  </si>
+  <si>
+    <t>CXS0004</t>
+  </si>
+  <si>
+    <t>CXS0005</t>
+  </si>
+  <si>
+    <t>CXS0006</t>
+  </si>
+  <si>
+    <t>CXS0007</t>
+  </si>
+  <si>
+    <t>CXS0008</t>
+  </si>
+  <si>
+    <t>CXS0009</t>
+  </si>
+  <si>
+    <t>CXS0010</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="28">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -371,13 +451,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -420,6 +493,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -428,7 +509,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,16 +523,32 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -463,6 +560,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -472,14 +577,37 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -494,13 +622,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -509,52 +630,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -563,7 +642,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -572,6 +651,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -596,181 +681,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -854,21 +939,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -879,39 +949,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -940,6 +977,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -950,6 +1020,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -958,165 +1043,177 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1128,7 +1225,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1140,10 +1237,10 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
@@ -1161,10 +1258,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1235,6 +1332,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00054D30"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1533,7 +1635,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="$A2:$XFD2"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="21" customHeight="1"/>
@@ -1565,123 +1667,123 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="16"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="19" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:2">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="14"/>
+      <c r="B4" s="18"/>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="14"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:2">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="17"/>
+      <c r="B7" s="21"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:2">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="21"/>
+      <c r="B8" s="25"/>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:2">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="17"/>
+      <c r="B9" s="21"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:2">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="24" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="21"/>
+      <c r="B10" s="25"/>
     </row>
     <row r="11" ht="38" customHeight="1" spans="1:2">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="17"/>
+      <c r="B11" s="21"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="18" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" ht="54" customHeight="1" spans="1:2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="26" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="14" t="s">
+      <c r="B14" s="18" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" ht="59" customHeight="1" spans="1:2">
-      <c r="A15" s="23" t="s">
+      <c r="A15" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="28" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:2">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="18" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" ht="63" customHeight="1" spans="1:2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="30" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1714,260 +1816,260 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="6"/>
-    <col min="2" max="2" width="11.375" style="6" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="6" customWidth="1"/>
-    <col min="4" max="14" width="11.375" style="6" customWidth="1"/>
-    <col min="15" max="15" width="28.875" style="6" customWidth="1"/>
-    <col min="16" max="16384" width="11.375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="10"/>
+    <col min="2" max="2" width="11.375" style="10" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="10" customWidth="1"/>
+    <col min="4" max="14" width="11.375" style="10" customWidth="1"/>
+    <col min="15" max="15" width="28.875" style="10" customWidth="1"/>
+    <col min="16" max="16384" width="11.375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="108" customHeight="1" spans="1:15">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" s="5" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A2" s="9" t="s">
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+    </row>
+    <row r="2" s="9" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A2" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="9" t="s">
+      <c r="M2" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="9" t="s">
+      <c r="N2" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="9" t="s">
+      <c r="O2" s="13" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="F3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="11">
+      <c r="J3" s="15">
         <v>43132</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="10"/>
-      <c r="N3" s="10" t="s">
+      <c r="M3" s="14"/>
+      <c r="N3" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="10" t="s">
+      <c r="O3" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:15">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:15">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:15">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10"/>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
+      <c r="A7" s="14"/>
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14"/>
+      <c r="F7" s="14"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="14"/>
     </row>
     <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="14"/>
+      <c r="O8" s="14"/>
     </row>
     <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
+      <c r="A9" s="14"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="14"/>
+      <c r="M9" s="14"/>
+      <c r="N9" s="14"/>
+      <c r="O9" s="14"/>
     </row>
     <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="14"/>
     </row>
     <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="14"/>
+      <c r="N11" s="14"/>
+      <c r="O11" s="14"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:O3"/>
@@ -2001,113 +2103,113 @@
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:5">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:5">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:5">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="8" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:5">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="8" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="8" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="8" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="8" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="8" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="8" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:5">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="8" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:5">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="8" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2123,14 +2225,198 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="22" customHeight="1" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="9.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="23.75" style="2" customWidth="1"/>
+    <col min="7" max="7" width="36.625" style="2" customWidth="1"/>
+    <col min="8" max="16384" width="13.5" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:8">
+      <c r="A1" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:8">
+      <c r="A4" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:8">
+      <c r="A5" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:8">
+      <c r="A6" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:8">
+      <c r="A7" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="G7" s="3"/>
+      <c r="H7" s="3"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:8">
+      <c r="A8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+      <c r="G8" s="3"/>
+      <c r="H8" s="3"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:8">
+      <c r="A9" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="3"/>
+      <c r="G9" s="3"/>
+      <c r="H9" s="3"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:8">
+      <c r="A10" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:8">
+      <c r="A11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:8">
+      <c r="A12" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>

--- a/pm_notes/4.文档模板/3.表格模板.xlsx
+++ b/pm_notes/4.文档模板/3.表格模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10500" activeTab="4"/>
+    <workbookView windowWidth="23895" windowHeight="10500" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="用户画像" sheetId="1" r:id="rId1"/>
@@ -12,9 +12,11 @@
     <sheet name="需求池" sheetId="3" r:id="rId3"/>
     <sheet name="竞品分析关注点" sheetId="4" r:id="rId4"/>
     <sheet name="产品设计体验记录" sheetId="5" r:id="rId5"/>
+    <sheet name="测试用例模板" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">需求池!$A$2:$O$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">测试用例模板!$A$2:$O$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -46,8 +48,42 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>aipai</author>
+  </authors>
+  <commentList>
+    <comment ref="A2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>aipai:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+LB代表具体项目代号
+00代表某个模块
+01代表模块下的某个用例</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
   <si>
     <t>需求单项卡</t>
   </si>
@@ -416,24 +452,72 @@
   <si>
     <t>CXS0010</t>
   </si>
+  <si>
+    <t>用例编写</t>
+  </si>
+  <si>
+    <t>子功能</t>
+  </si>
+  <si>
+    <t>用例名称</t>
+  </si>
+  <si>
+    <t>前置条件</t>
+  </si>
+  <si>
+    <t>操作步骤</t>
+  </si>
+  <si>
+    <t>预期结果</t>
+  </si>
+  <si>
+    <t>测试结果</t>
+  </si>
+  <si>
+    <t>bug描述</t>
+  </si>
+  <si>
+    <t>bug概率</t>
+  </si>
+  <si>
+    <t>bug重要性</t>
+  </si>
+  <si>
+    <t>bug负责人</t>
+  </si>
+  <si>
+    <t>测试人员</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="29">
+  <fonts count="30">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -486,8 +570,52 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -501,29 +629,56 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -538,63 +693,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -606,34 +707,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -651,24 +729,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.5"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -681,37 +759,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -723,7 +867,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -735,7 +897,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,120 +921,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -872,6 +950,19 @@
       <left style="thin">
         <color auto="1"/>
       </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color auto="1"/>
       </right>
@@ -938,6 +1029,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -962,21 +1062,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -988,35 +1073,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1035,6 +1091,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1043,10 +1134,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1055,228 +1146,234 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1667,123 +1764,123 @@
   </cols>
   <sheetData>
     <row r="1" ht="28" customHeight="1" spans="1:2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16"/>
+      <c r="B1" s="18"/>
     </row>
     <row r="2" ht="20" customHeight="1" spans="1:2">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="20" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="3" ht="33" customHeight="1" spans="1:2">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="4" ht="19" customHeight="1" spans="1:2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="18"/>
+      <c r="B4" s="20"/>
     </row>
     <row r="5" ht="33" customHeight="1" spans="1:3">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="22" t="s">
+      <c r="B5" s="23"/>
+      <c r="C5" s="24" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="18"/>
+      <c r="B6" s="20"/>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:2">
-      <c r="A7" s="23" t="s">
+      <c r="A7" s="25" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="21"/>
+      <c r="B7" s="23"/>
     </row>
     <row r="8" ht="18" customHeight="1" spans="1:2">
-      <c r="A8" s="24" t="s">
+      <c r="A8" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="25"/>
+      <c r="B8" s="27"/>
     </row>
     <row r="9" ht="39" customHeight="1" spans="1:2">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="21"/>
+      <c r="B9" s="23"/>
     </row>
     <row r="10" ht="20" customHeight="1" spans="1:2">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="25"/>
+      <c r="B10" s="27"/>
     </row>
     <row r="11" ht="38" customHeight="1" spans="1:2">
-      <c r="A11" s="23" t="s">
+      <c r="A11" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="21"/>
+      <c r="B11" s="23"/>
     </row>
     <row r="12" ht="20" customHeight="1" spans="1:2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="20" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="13" ht="54" customHeight="1" spans="1:2">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1" spans="1:2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="20" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="15" ht="59" customHeight="1" spans="1:2">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="30" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="16" ht="20" customHeight="1" spans="1:2">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="20" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" ht="63" customHeight="1" spans="1:2">
-      <c r="A17" s="29" t="s">
+      <c r="A17" s="31" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="32" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1816,260 +1913,260 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="21" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="10"/>
-    <col min="2" max="2" width="11.375" style="10" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="10" customWidth="1"/>
-    <col min="4" max="14" width="11.375" style="10" customWidth="1"/>
-    <col min="15" max="15" width="28.875" style="10" customWidth="1"/>
-    <col min="16" max="16384" width="11.375" style="10" customWidth="1"/>
+    <col min="1" max="1" width="11.375" style="12"/>
+    <col min="2" max="2" width="11.375" style="12" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="12" customWidth="1"/>
+    <col min="4" max="14" width="11.375" style="12" customWidth="1"/>
+    <col min="15" max="15" width="28.875" style="12" customWidth="1"/>
+    <col min="16" max="16384" width="11.375" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="108" customHeight="1" spans="1:15">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-    </row>
-    <row r="2" s="9" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A2" s="13" t="s">
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+    </row>
+    <row r="2" s="11" customFormat="1" customHeight="1" spans="1:15">
+      <c r="A2" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="15" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="14" t="s">
+      <c r="D3" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="14" t="s">
+      <c r="H3" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="15">
+      <c r="J3" s="17">
         <v>43132</v>
       </c>
-      <c r="K3" s="14" t="s">
+      <c r="K3" s="16" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="L3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14" t="s">
+      <c r="M3" s="16"/>
+      <c r="N3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="14" t="s">
+      <c r="O3" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4" customHeight="1" spans="1:15">
-      <c r="A4" s="14"/>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14"/>
-      <c r="F4" s="14"/>
-      <c r="G4" s="14"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="14"/>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="14"/>
-      <c r="N4" s="14"/>
-      <c r="O4" s="14"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
     </row>
     <row r="5" customHeight="1" spans="1:15">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="14"/>
-      <c r="E5" s="14"/>
-      <c r="F5" s="14"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="14"/>
-      <c r="I5" s="14"/>
-      <c r="J5" s="14"/>
-      <c r="K5" s="14"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="14"/>
-      <c r="N5" s="14"/>
-      <c r="O5" s="14"/>
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
     </row>
     <row r="6" customHeight="1" spans="1:15">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="14"/>
-      <c r="O6" s="14"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="16"/>
+      <c r="F6" s="16"/>
+      <c r="G6" s="16"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
     </row>
     <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="14"/>
-      <c r="J7" s="14"/>
-      <c r="K7" s="14"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="14"/>
-      <c r="N7" s="14"/>
-      <c r="O7" s="14"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
     </row>
     <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="14"/>
-      <c r="O8" s="14"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
     </row>
     <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="14"/>
-      <c r="F9" s="14"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14"/>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
-      <c r="K9" s="14"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="14"/>
-      <c r="N9" s="14"/>
-      <c r="O9" s="14"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="16"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="16"/>
+      <c r="H9" s="16"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
     </row>
     <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="14"/>
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="J10" s="14"/>
-      <c r="K10" s="14"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="14"/>
-      <c r="N10" s="14"/>
-      <c r="O10" s="14"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="16"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
     </row>
     <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-      <c r="O11" s="14"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:O3"/>
@@ -2103,113 +2200,113 @@
   </cols>
   <sheetData>
     <row r="1" ht="35" customHeight="1" spans="1:5">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
     </row>
     <row r="2" ht="35" customHeight="1" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="3" ht="35" customHeight="1" spans="1:5">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="4" ht="35" customHeight="1" spans="1:5">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="10" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="5" ht="35" customHeight="1" spans="1:5">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="8" t="s">
+      <c r="C5" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="6" ht="35" customHeight="1" spans="1:5">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="10" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="D6" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="8" t="s">
+      <c r="E6" s="10" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="7" ht="35" customHeight="1" spans="1:5">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="10" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2227,191 +2324,191 @@
   <sheetPr/>
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="22" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="55.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.75" style="2" customWidth="1"/>
-    <col min="7" max="7" width="36.625" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="13.5" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="55.375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="29.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.75" style="4" customWidth="1"/>
+    <col min="7" max="7" width="36.625" style="4" customWidth="1"/>
+    <col min="8" max="16384" width="13.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:8">
-      <c r="A2" s="4" t="s">
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="3" customHeight="1" spans="1:8">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="5" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G3" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="H3" s="3"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" customHeight="1" spans="1:8">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" customHeight="1" spans="1:8">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="3"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" customHeight="1" spans="1:8">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="3"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" customHeight="1" spans="1:8">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="3"/>
-      <c r="H7" s="3"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" customHeight="1" spans="1:8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" customHeight="1" spans="1:8">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="3"/>
-      <c r="H9" s="3"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
     </row>
     <row r="10" customHeight="1" spans="1:8">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3"/>
-      <c r="H10" s="3"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
     </row>
     <row r="11" customHeight="1" spans="1:8">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3"/>
-      <c r="H11" s="3"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" customHeight="1" spans="1:8">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -2420,4 +2517,78 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:P2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:O1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelRow="1"/>
+  <cols>
+    <col min="1" max="16384" width="16.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="46" customHeight="1"/>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:16">
+      <c r="A2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P2" s="3"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A2:O2"/>
+  <mergeCells count="1">
+    <mergeCell ref="A1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <headerFooter/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/pm_notes/4.文档模板/3.表格模板.xlsx
+++ b/pm_notes/4.文档模板/3.表格模板.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
   <si>
     <t>需求单项卡</t>
   </si>
@@ -453,6 +453,9 @@
     <t>CXS0010</t>
   </si>
   <si>
+    <t>环境描述（公司、项目、测试环境）</t>
+  </si>
+  <si>
     <t>用例编写</t>
   </si>
   <si>
@@ -570,6 +573,82 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -579,13 +658,6 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -593,36 +665,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -637,40 +681,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -684,36 +703,20 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -759,36 +762,108 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -801,61 +876,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -868,36 +901,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1029,11 +1032,76 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1056,73 +1124,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1134,10 +1137,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1146,133 +1149,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2169,7 +2172,9 @@
       <c r="O11" s="16"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O3"/>
+  <autoFilter ref="A2:O3">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
@@ -2533,13 +2538,17 @@
     <col min="1" max="16384" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46" customHeight="1"/>
+    <row r="1" ht="46" customHeight="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>109</v>
+      </c>
+    </row>
     <row r="2" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>28</v>
@@ -2548,42 +2557,44 @@
         <v>30</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="K2" s="2" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="P2" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O2"/>
+  <autoFilter ref="A2:O2">
+    <extLst/>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>

--- a/pm_notes/4.文档模板/3.表格模板.xlsx
+++ b/pm_notes/4.文档模板/3.表格模板.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\4.文档模板\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F9666A-9C88-4F46-875B-CEBCB84097D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10500" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户画像" sheetId="1" r:id="rId1"/>
@@ -13,22 +19,23 @@
     <sheet name="竞品分析关注点" sheetId="4" r:id="rId4"/>
     <sheet name="产品设计体验记录" sheetId="5" r:id="rId5"/>
     <sheet name="测试用例模板" sheetId="6" r:id="rId6"/>
+    <sheet name="数据分析" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">测试用例模板!$A$2:$O$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">需求池!$A$2:$O$3</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">测试用例模板!$A$2:$O$2</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>aipai</author>
   </authors>
   <commentList>
-    <comment ref="B2" authorId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -49,12 +56,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>aipai</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0500-000001000000}">
       <text>
         <r>
           <rPr>
@@ -83,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
   <si>
     <t>需求单项卡</t>
   </si>
@@ -491,18 +498,32 @@
   <si>
     <t>测试人员</t>
   </si>
+  <si>
+    <t>时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>18年7月到9月</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>17年7月到9月</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>16年7月到9月</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>葵域名注册量</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="30">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -573,157 +594,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="37">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -750,198 +659,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.5"/>
+        <fgColor theme="0" tint="-0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1031,255 +760,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1301,9 +788,6 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1319,127 +803,107 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="00054D30"/>
+      <color rgb="FF054D30"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1726,592 +1190,585 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="13" customWidth="1"/>
+    <col min="1" max="1" width="13" customWidth="1"/>
   </cols>
   <sheetData/>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" topLeftCell="A13" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A7" sqref="A7:B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.625" customWidth="1"/>
-    <col min="2" max="2" width="47.7166666666667" customWidth="1"/>
-    <col min="3" max="3" width="36.4083333333333" customWidth="1"/>
-    <col min="4" max="16384" width="10.625" customWidth="1"/>
+    <col min="2" max="2" width="47.75" customWidth="1"/>
+    <col min="3" max="3" width="36.375" customWidth="1"/>
+    <col min="4" max="4" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" customHeight="1" spans="1:2">
-      <c r="A1" s="18" t="s">
+    <row r="1" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-    </row>
-    <row r="2" ht="20" customHeight="1" spans="1:2">
-      <c r="A2" s="19" t="s">
+      <c r="B1" s="24"/>
+    </row>
+    <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" ht="33" customHeight="1" spans="1:2">
-      <c r="A3" s="21" t="s">
+    <row r="3" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="17" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" ht="19" customHeight="1" spans="1:2">
-      <c r="A4" s="20" t="s">
+    <row r="4" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="20"/>
-    </row>
-    <row r="5" ht="33" customHeight="1" spans="1:3">
-      <c r="A5" s="22" t="s">
+      <c r="B4" s="25"/>
+    </row>
+    <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="23"/>
-      <c r="C5" s="24" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" ht="21" customHeight="1" spans="1:2">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="25" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="20"/>
-    </row>
-    <row r="7" ht="35" customHeight="1" spans="1:2">
-      <c r="A7" s="25" t="s">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="7" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="23"/>
-    </row>
-    <row r="8" ht="18" customHeight="1" spans="1:2">
-      <c r="A8" s="26" t="s">
+      <c r="B7" s="27"/>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="29" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="27"/>
-    </row>
-    <row r="9" ht="39" customHeight="1" spans="1:2">
-      <c r="A9" s="25" t="s">
+      <c r="B8" s="30"/>
+    </row>
+    <row r="9" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="23"/>
-    </row>
-    <row r="10" ht="20" customHeight="1" spans="1:2">
-      <c r="A10" s="26" t="s">
+      <c r="B9" s="27"/>
+    </row>
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="27"/>
-    </row>
-    <row r="11" ht="38" customHeight="1" spans="1:2">
-      <c r="A11" s="25" t="s">
+      <c r="B10" s="30"/>
+    </row>
+    <row r="11" spans="1:3" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="23"/>
-    </row>
-    <row r="12" ht="20" customHeight="1" spans="1:2">
-      <c r="A12" s="20" t="s">
+      <c r="B11" s="27"/>
+    </row>
+    <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="16" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" ht="54" customHeight="1" spans="1:2">
-      <c r="A13" s="28" t="s">
+    <row r="13" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="19" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" ht="18" customHeight="1" spans="1:2">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="16" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" ht="59" customHeight="1" spans="1:2">
-      <c r="A15" s="29" t="s">
+    <row r="15" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="21" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" ht="20" customHeight="1" spans="1:2">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" ht="63" customHeight="1" spans="1:2">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="32" t="s">
+      <c r="B17" s="23" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A4:B4"/>
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:B11"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:O11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="21" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.375" style="12"/>
-    <col min="2" max="2" width="11.375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="12.25" style="12" customWidth="1"/>
-    <col min="4" max="14" width="11.375" style="12" customWidth="1"/>
-    <col min="15" max="15" width="28.875" style="12" customWidth="1"/>
-    <col min="16" max="16384" width="11.375" style="12" customWidth="1"/>
+    <col min="1" max="2" width="11.375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="11" customWidth="1"/>
+    <col min="4" max="14" width="11.375" style="11" customWidth="1"/>
+    <col min="15" max="15" width="28.875" style="11" customWidth="1"/>
+    <col min="16" max="16" width="11.375" style="11" customWidth="1"/>
+    <col min="17" max="16384" width="11.375" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" ht="108" customHeight="1" spans="1:15">
-      <c r="A1" s="13" t="s">
+    <row r="1" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" s="11" customFormat="1" customHeight="1" spans="1:15">
-      <c r="A2" s="15" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+    </row>
+    <row r="2" spans="1:15" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="15" t="s">
+      <c r="F2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="15" t="s">
+      <c r="G2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="15" t="s">
+      <c r="H2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="15" t="s">
+      <c r="K2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="15" t="s">
+      <c r="L2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="15" t="s">
+      <c r="M2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="15" t="s">
+      <c r="N2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="O2" s="15" t="s">
+      <c r="O2" s="12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:15">
-      <c r="A3" s="16" t="s">
+    <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="16" t="s">
+      <c r="C3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="16" t="s">
+      <c r="D3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="16" t="s">
+      <c r="H3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="16" t="s">
+      <c r="I3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="17">
+      <c r="J3" s="14">
         <v>43132</v>
       </c>
-      <c r="K3" s="16" t="s">
+      <c r="K3" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="L3" s="16" t="s">
+      <c r="L3" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="M3" s="16"/>
-      <c r="N3" s="16" t="s">
+      <c r="M3" s="13"/>
+      <c r="N3" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="O3" s="16" t="s">
+      <c r="O3" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:15">
-      <c r="A4" s="16"/>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="16"/>
-      <c r="G4" s="16"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="16"/>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:15">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:15">
-      <c r="A6" s="16"/>
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="16"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="16"/>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:15">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="16"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16"/>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:15">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="16"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="16"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="16"/>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:15">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="16"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="16"/>
-      <c r="J9" s="16"/>
-      <c r="K9" s="16"/>
-      <c r="L9" s="16"/>
-      <c r="M9" s="16"/>
-      <c r="N9" s="16"/>
-      <c r="O9" s="16"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:15">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="16"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:15">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="16"/>
-      <c r="N11" s="16"/>
-      <c r="O11" s="16"/>
+    <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="13"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+    </row>
+    <row r="5" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13"/>
+      <c r="I5" s="13"/>
+      <c r="J5" s="13"/>
+      <c r="K5" s="13"/>
+      <c r="L5" s="13"/>
+      <c r="M5" s="13"/>
+      <c r="N5" s="13"/>
+      <c r="O5" s="13"/>
+    </row>
+    <row r="6" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="J6" s="13"/>
+      <c r="K6" s="13"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="13"/>
+      <c r="N6" s="13"/>
+      <c r="O6" s="13"/>
+    </row>
+    <row r="7" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
+      <c r="K7" s="13"/>
+      <c r="L7" s="13"/>
+      <c r="M7" s="13"/>
+      <c r="N7" s="13"/>
+      <c r="O7" s="13"/>
+    </row>
+    <row r="8" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
+      <c r="L8" s="13"/>
+      <c r="M8" s="13"/>
+      <c r="N8" s="13"/>
+      <c r="O8" s="13"/>
+    </row>
+    <row r="9" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
+      <c r="L9" s="13"/>
+      <c r="M9" s="13"/>
+      <c r="N9" s="13"/>
+      <c r="O9" s="13"/>
+    </row>
+    <row r="10" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="13"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
+      <c r="L10" s="13"/>
+      <c r="M10" s="13"/>
+      <c r="N10" s="13"/>
+      <c r="O10" s="13"/>
+    </row>
+    <row r="11" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="13"/>
+      <c r="H11" s="13"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
+      <c r="L11" s="13"/>
+      <c r="M11" s="13"/>
+      <c r="N11" s="13"/>
+      <c r="O11" s="13"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O3">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:O3" xr:uid="{00000000-0009-0000-0000-000002000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13" defaultRowHeight="21" customHeight="1" outlineLevelRow="6" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="13" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="16.375" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="24.75" customWidth="1"/>
     <col min="5" max="5" width="51.875" customWidth="1"/>
-    <col min="6" max="16384" width="13" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="35" customHeight="1" spans="1:5">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-    </row>
-    <row r="2" ht="35" customHeight="1" spans="1:5">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="7" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="E2" s="7" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="3" ht="35" customHeight="1" spans="1:5">
-      <c r="A3" s="9" t="s">
+    <row r="3" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" ht="35" customHeight="1" spans="1:5">
-      <c r="A4" s="9" t="s">
+    <row r="4" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="D4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:5">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="D5" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="9" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" ht="35" customHeight="1" spans="1:5">
-      <c r="A6" s="9" t="s">
+    <row r="6" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="7" ht="35" customHeight="1" spans="1:5">
-      <c r="A7" s="9" t="s">
+    <row r="7" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="9" t="s">
         <v>84</v>
       </c>
     </row>
@@ -2319,21 +1776,20 @@
   <mergeCells count="1">
     <mergeCell ref="A1:E1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="22" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="13.5" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9.125" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="4" customWidth="1"/>
@@ -2342,22 +1798,23 @@
     <col min="5" max="5" width="29.125" style="4" customWidth="1"/>
     <col min="6" max="6" width="23.75" style="4" customWidth="1"/>
     <col min="7" max="7" width="36.625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="13.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.5" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="13.5" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" customHeight="1" spans="1:8">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
-      <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" s="4" customFormat="1" customHeight="1" spans="1:8">
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+    </row>
+    <row r="2" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
@@ -2383,7 +1840,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
         <v>93</v>
       </c>
@@ -2407,7 +1864,7 @@
       </c>
       <c r="H3" s="5"/>
     </row>
-    <row r="4" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
         <v>100</v>
       </c>
@@ -2419,7 +1876,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
     </row>
-    <row r="5" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
         <v>101</v>
       </c>
@@ -2431,7 +1888,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
     </row>
-    <row r="6" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
         <v>102</v>
       </c>
@@ -2443,7 +1900,7 @@
       <c r="G6" s="5"/>
       <c r="H6" s="5"/>
     </row>
-    <row r="7" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
         <v>103</v>
       </c>
@@ -2455,7 +1912,7 @@
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
-    <row r="8" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
         <v>104</v>
       </c>
@@ -2467,7 +1924,7 @@
       <c r="G8" s="5"/>
       <c r="H8" s="5"/>
     </row>
-    <row r="9" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
         <v>105</v>
       </c>
@@ -2479,7 +1936,7 @@
       <c r="G9" s="5"/>
       <c r="H9" s="5"/>
     </row>
-    <row r="10" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
         <v>106</v>
       </c>
@@ -2491,7 +1948,7 @@
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
     </row>
-    <row r="11" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
         <v>107</v>
       </c>
@@ -2503,7 +1960,7 @@
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
     </row>
-    <row r="12" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
         <v>108</v>
       </c>
@@ -2519,31 +1976,44 @@
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:P2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:O1"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:O1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="16.625" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="46" customHeight="1" spans="1:1">
-      <c r="A1" t="s">
+    <row r="1" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:16">
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="35"/>
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+    </row>
+    <row r="2" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>27</v>
       </c>
@@ -2592,14 +2062,89 @@
       <c r="P2" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:O2">
-    <extLst/>
-  </autoFilter>
+  <autoFilter ref="A2:O2" xr:uid="{00000000-0009-0000-0000-000005000000}"/>
   <mergeCells count="1">
     <mergeCell ref="A1:O1"/>
   </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <phoneticPr fontId="15" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7F794C-512D-401A-8FB9-AB022CEF3767}">
+  <dimension ref="A1:E4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="13.375" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" s="36"/>
+      <c r="D1" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B2">
+        <v>3895</v>
+      </c>
+      <c r="D2" s="38">
+        <v>43282</v>
+      </c>
+      <c r="E2">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" t="s">
+        <v>124</v>
+      </c>
+      <c r="B3">
+        <v>5195</v>
+      </c>
+      <c r="D3" s="38">
+        <v>43314</v>
+      </c>
+      <c r="E3">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4">
+        <v>611</v>
+      </c>
+      <c r="D4" s="38">
+        <v>43346</v>
+      </c>
+      <c r="E4">
+        <v>1117</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/pm_notes/4.文档模板/3.表格模板.xlsx
+++ b/pm_notes/4.文档模板/3.表格模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\4.文档模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16F9666A-9C88-4F46-875B-CEBCB84097D1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB812AA-8560-4F76-B9A6-7A9D35255D4A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
   <si>
     <t>需求单项卡</t>
   </si>
@@ -516,6 +516,22 @@
   </si>
   <si>
     <t>葵域名注册量</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间（18年）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通域名</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>精品域名</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>优质域名</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -766,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -839,6 +855,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -848,18 +879,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -875,17 +894,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1228,10 +1253,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
+      <c r="B1" s="29"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
@@ -1250,55 +1275,55 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="25"/>
+      <c r="B4" s="30"/>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="28"/>
       <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="25"/>
+      <c r="B6" s="30"/>
     </row>
     <row r="7" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="27"/>
+      <c r="B7" s="28"/>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
+      <c r="A8" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="30"/>
+      <c r="B8" s="26"/>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="28" t="s">
+      <c r="A9" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="27"/>
+      <c r="B9" s="28"/>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="29" t="s">
+      <c r="A10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="30"/>
+      <c r="B10" s="26"/>
     </row>
     <row r="11" spans="1:3" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="27"/>
+      <c r="B11" s="28"/>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
@@ -1385,23 +1410,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="J1" s="33"/>
+      <c r="K1" s="33"/>
+      <c r="L1" s="33"/>
+      <c r="M1" s="33"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
@@ -1662,13 +1687,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
@@ -1803,16 +1828,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
     </row>
     <row r="2" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -1995,23 +2020,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="35"/>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -2074,72 +2099,123 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7F794C-512D-401A-8FB9-AB022CEF3767}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="4" max="4" width="13.375" style="39"/>
+    <col min="4" max="4" width="13.375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="37" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="36"/>
-      <c r="D1" s="37" t="s">
+      <c r="C1" s="38"/>
+      <c r="D1" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="38" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" t="s">
+      <c r="G1" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1" s="41" t="s">
+        <v>129</v>
+      </c>
+      <c r="J1" s="41" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="37" t="s">
         <v>123</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="37">
         <v>3895</v>
       </c>
-      <c r="D2" s="38">
+      <c r="C2" s="37"/>
+      <c r="D2" s="40">
         <v>43282</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="37">
         <v>1049</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" t="s">
+      <c r="G2" s="42">
+        <v>43286</v>
+      </c>
+      <c r="H2" s="37">
+        <v>40</v>
+      </c>
+      <c r="I2" s="37">
+        <v>3</v>
+      </c>
+      <c r="J2" s="37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="37" t="s">
         <v>124</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="37">
         <v>5195</v>
       </c>
-      <c r="D3" s="38">
+      <c r="C3" s="37"/>
+      <c r="D3" s="40">
         <v>43314</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="37">
         <v>1056</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" t="s">
+      <c r="G3" s="42">
+        <v>43315</v>
+      </c>
+      <c r="H3" s="37">
+        <v>26</v>
+      </c>
+      <c r="I3" s="37">
+        <v>0</v>
+      </c>
+      <c r="J3" s="37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="37" t="s">
         <v>125</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="37">
         <v>611</v>
       </c>
-      <c r="D4" s="38">
+      <c r="C4" s="37"/>
+      <c r="D4" s="40">
         <v>43346</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="37">
         <v>1117</v>
+      </c>
+      <c r="G4" s="42">
+        <v>43350</v>
+      </c>
+      <c r="H4" s="37">
+        <v>36</v>
+      </c>
+      <c r="I4" s="37">
+        <v>4</v>
+      </c>
+      <c r="J4" s="37">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/pm_notes/4.文档模板/3.表格模板.xlsx
+++ b/pm_notes/4.文档模板/3.表格模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\4.文档模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB812AA-8560-4F76-B9A6-7A9D35255D4A}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8176E5-A4A5-4F99-9DCC-7D33D45E872F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
   <si>
     <t>需求单项卡</t>
   </si>
@@ -782,7 +782,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -858,6 +858,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -892,24 +913,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1253,10 +1256,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="29"/>
+      <c r="B1" s="36"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
@@ -1275,55 +1278,55 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="30"/>
+      <c r="B4" s="37"/>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="38" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="28"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="30"/>
+      <c r="B6" s="37"/>
     </row>
     <row r="7" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="27" t="s">
+      <c r="A7" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="28"/>
+      <c r="B7" s="35"/>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="26"/>
+      <c r="B8" s="33"/>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="28"/>
+      <c r="B9" s="35"/>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="26"/>
+      <c r="B10" s="33"/>
     </row>
     <row r="11" spans="1:3" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="28"/>
+      <c r="B11" s="35"/>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
@@ -1410,23 +1413,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="J1" s="33"/>
-      <c r="K1" s="33"/>
-      <c r="L1" s="33"/>
-      <c r="M1" s="33"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
+      <c r="B1" s="40"/>
+      <c r="C1" s="40"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+      <c r="H1" s="40"/>
+      <c r="I1" s="40"/>
+      <c r="J1" s="40"/>
+      <c r="K1" s="40"/>
+      <c r="L1" s="40"/>
+      <c r="M1" s="40"/>
+      <c r="N1" s="40"/>
+      <c r="O1" s="40"/>
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
@@ -1687,13 +1690,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="41" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
@@ -1828,16 +1831,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="42"/>
+      <c r="H1" s="42"/>
     </row>
     <row r="2" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -2020,23 +2023,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -2099,122 +2102,135 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7F794C-512D-401A-8FB9-AB022CEF3767}">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="4" max="4" width="13.375" style="24"/>
+    <col min="8" max="8" width="13.375" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="26" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="39" t="s">
+      <c r="C1" s="27"/>
+      <c r="D1" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="E1" s="27" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="38" t="s">
+      <c r="G1" s="27" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="30" t="s">
+        <v>126</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="I1" s="41" t="s">
+      <c r="J1" s="30" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="41" t="s">
+      <c r="K1" s="30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="37" t="s">
+    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
         <v>123</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="26">
         <v>3895</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="40">
+      <c r="C2" s="26"/>
+      <c r="D2" s="29">
         <v>43282</v>
       </c>
-      <c r="E2" s="37">
+      <c r="E2" s="26">
         <v>1049</v>
       </c>
-      <c r="G2" s="42">
+      <c r="G2" s="31">
         <v>43286</v>
       </c>
-      <c r="H2" s="37">
+      <c r="H2" s="26">
         <v>40</v>
       </c>
-      <c r="I2" s="37">
+      <c r="I2" s="26">
+        <v>36</v>
+      </c>
+      <c r="J2" s="26">
         <v>3</v>
       </c>
-      <c r="J2" s="37">
+      <c r="K2" s="26">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="37" t="s">
+    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="26">
         <v>5195</v>
       </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="40">
+      <c r="C3" s="26"/>
+      <c r="D3" s="29">
         <v>43314</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="26">
         <v>1056</v>
       </c>
-      <c r="G3" s="42">
+      <c r="G3" s="31">
         <v>43315</v>
       </c>
-      <c r="H3" s="37">
+      <c r="H3" s="26">
         <v>26</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="26">
+        <v>24</v>
+      </c>
+      <c r="J3" s="26">
         <v>0</v>
       </c>
-      <c r="J3" s="37">
+      <c r="K3" s="26">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="37" t="s">
+    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="26" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="26">
         <v>611</v>
       </c>
-      <c r="C4" s="37"/>
-      <c r="D4" s="40">
+      <c r="C4" s="26"/>
+      <c r="D4" s="29">
         <v>43346</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="26">
         <v>1117</v>
       </c>
-      <c r="G4" s="42">
+      <c r="G4" s="31">
         <v>43350</v>
       </c>
-      <c r="H4" s="37">
+      <c r="H4" s="26">
         <v>36</v>
       </c>
-      <c r="I4" s="37">
+      <c r="I4" s="26">
+        <v>31</v>
+      </c>
+      <c r="J4" s="26">
         <v>4</v>
       </c>
-      <c r="J4" s="37">
+      <c r="K4" s="26">
         <v>1</v>
       </c>
     </row>

--- a/pm_notes/4.文档模板/3.表格模板.xlsx
+++ b/pm_notes/4.文档模板/3.表格模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\4.文档模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8176E5-A4A5-4F99-9DCC-7D33D45E872F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274EEA66-1FD8-4592-BBD8-9E882AD35DA9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="151">
   <si>
     <t>需求单项卡</t>
   </si>
@@ -532,6 +532,99 @@
   </si>
   <si>
     <t>优质域名</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签栏</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问量（18年9月）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问量（17年9月）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问量（16年9月）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>单一身份浏览量更低</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件定制</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>主机列表</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>葵域名</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>云监控</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>我的福利</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光小店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>远控日志</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>高级功能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>开机设备</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>去年9月葵域名注册量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2426</t>
+    </r>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务续费</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>VPN组网</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>代购</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -782,7 +875,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,6 +1007,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2102,19 +2207,25 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7F794C-512D-401A-8FB9-AB022CEF3767}">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="19.75" customWidth="1"/>
+    <col min="3" max="3" width="22.5" customWidth="1"/>
     <col min="4" max="4" width="13.375" style="24"/>
     <col min="8" max="8" width="13.375" style="25"/>
+    <col min="13" max="13" width="16.875" customWidth="1"/>
+    <col min="14" max="15" width="18.375" style="44" customWidth="1"/>
+    <col min="16" max="16" width="20.25" style="44" customWidth="1"/>
+    <col min="17" max="17" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
         <v>122</v>
       </c>
@@ -2143,8 +2254,23 @@
       <c r="K1" s="30" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M1" s="26" t="s">
+        <v>131</v>
+      </c>
+      <c r="N1" s="45" t="s">
+        <v>134</v>
+      </c>
+      <c r="O1" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="P1" s="45" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q1" s="46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
         <v>123</v>
       </c>
@@ -2173,8 +2299,21 @@
       <c r="K2" s="26">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="N2" s="45">
+        <v>147111</v>
+      </c>
+      <c r="O2" s="45">
+        <v>204521</v>
+      </c>
+      <c r="P2" s="45">
+        <v>161141</v>
+      </c>
+      <c r="Q2" s="26"/>
+    </row>
+    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>124</v>
       </c>
@@ -2203,8 +2342,21 @@
       <c r="K3" s="26">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M3" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="N3" s="45">
+        <v>22604</v>
+      </c>
+      <c r="O3" s="45">
+        <v>90962</v>
+      </c>
+      <c r="P3" s="45">
+        <v>105670</v>
+      </c>
+      <c r="Q3" s="26"/>
+    </row>
+    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>125</v>
       </c>
@@ -2232,6 +2384,151 @@
       </c>
       <c r="K4" s="26">
         <v>1</v>
+      </c>
+      <c r="M4" s="26" t="s">
+        <v>138</v>
+      </c>
+      <c r="N4" s="45">
+        <v>1652</v>
+      </c>
+      <c r="O4" s="45">
+        <v>9377</v>
+      </c>
+      <c r="P4" s="45">
+        <v>3420</v>
+      </c>
+      <c r="Q4" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M5" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="N5" s="45">
+        <v>5706</v>
+      </c>
+      <c r="O5" s="45">
+        <v>7751</v>
+      </c>
+      <c r="P5" s="45">
+        <v>5567</v>
+      </c>
+      <c r="Q5" s="26"/>
+    </row>
+    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M6" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="N6" s="45">
+        <v>2456</v>
+      </c>
+      <c r="O6" s="45">
+        <v>2750</v>
+      </c>
+      <c r="P6" s="45">
+        <v>3576</v>
+      </c>
+      <c r="Q6" s="26" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M7" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="N7" s="45">
+        <v>0</v>
+      </c>
+      <c r="O7" s="45">
+        <v>3816</v>
+      </c>
+      <c r="P7" s="45">
+        <v>2255</v>
+      </c>
+      <c r="Q7" s="26"/>
+    </row>
+    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M8" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="N8" s="45">
+        <v>0</v>
+      </c>
+      <c r="O8" s="45">
+        <v>1699</v>
+      </c>
+      <c r="P8" s="45">
+        <v>1159</v>
+      </c>
+      <c r="Q8" s="26"/>
+    </row>
+    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M9" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="N9" s="45">
+        <v>0</v>
+      </c>
+      <c r="O9" s="45">
+        <v>0</v>
+      </c>
+      <c r="P9" s="45">
+        <v>1709</v>
+      </c>
+      <c r="Q9" s="26"/>
+    </row>
+    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M10" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="N10" s="45">
+        <v>0</v>
+      </c>
+      <c r="O10" s="45">
+        <v>0</v>
+      </c>
+      <c r="P10" s="45">
+        <v>3644</v>
+      </c>
+      <c r="Q10" s="26"/>
+    </row>
+    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M11" s="27" t="s">
+        <v>147</v>
+      </c>
+      <c r="N11" s="45">
+        <v>1977</v>
+      </c>
+      <c r="O11" s="45">
+        <v>2452</v>
+      </c>
+      <c r="P11" s="45">
+        <v>2025</v>
+      </c>
+      <c r="Q11" s="26"/>
+    </row>
+    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M12" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N12" s="45"/>
+      <c r="O12" s="45"/>
+      <c r="P12" s="45"/>
+      <c r="Q12" s="26"/>
+    </row>
+    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="M13" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="N13" s="45"/>
+      <c r="O13" s="45"/>
+      <c r="P13" s="45"/>
+      <c r="Q13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P14" s="47" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/pm_notes/4.文档模板/3.表格模板.xlsx
+++ b/pm_notes/4.文档模板/3.表格模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\4.文档模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274EEA66-1FD8-4592-BBD8-9E882AD35DA9}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DE282-787E-45DB-863C-87D1A9C5FD2F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -551,10 +551,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>单一身份浏览量更低</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>软件定制</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -625,6 +621,10 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>做好引导</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -972,6 +972,18 @@
     <xf numFmtId="58" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1007,18 +1019,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1361,10 +1361,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36"/>
+      <c r="B1" s="40"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
@@ -1383,55 +1383,55 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="37" t="s">
+      <c r="A4" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="37"/>
+      <c r="B4" s="41"/>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="38" t="s">
+      <c r="A5" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="37" t="s">
+      <c r="A6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="41"/>
     </row>
     <row r="7" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="34" t="s">
+      <c r="A7" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="35"/>
+      <c r="B7" s="39"/>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="32" t="s">
+      <c r="A8" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="33"/>
+      <c r="B8" s="37"/>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="35"/>
+      <c r="B9" s="39"/>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="33"/>
+      <c r="B10" s="37"/>
     </row>
     <row r="11" spans="1:3" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="34" t="s">
+      <c r="A11" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="35"/>
+      <c r="B11" s="39"/>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
@@ -1518,23 +1518,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="40"/>
-      <c r="C1" s="40"/>
-      <c r="D1" s="40"/>
-      <c r="E1" s="40"/>
-      <c r="F1" s="40"/>
-      <c r="G1" s="40"/>
-      <c r="H1" s="40"/>
-      <c r="I1" s="40"/>
-      <c r="J1" s="40"/>
-      <c r="K1" s="40"/>
-      <c r="L1" s="40"/>
-      <c r="M1" s="40"/>
-      <c r="N1" s="40"/>
-      <c r="O1" s="40"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
@@ -1795,13 +1795,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
@@ -1936,16 +1936,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
+      <c r="A1" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
     </row>
     <row r="2" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -2128,23 +2128,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -2209,8 +2209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7F794C-512D-401A-8FB9-AB022CEF3767}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2220,8 +2220,8 @@
     <col min="4" max="4" width="13.375" style="24"/>
     <col min="8" max="8" width="13.375" style="25"/>
     <col min="13" max="13" width="16.875" customWidth="1"/>
-    <col min="14" max="15" width="18.375" style="44" customWidth="1"/>
-    <col min="16" max="16" width="20.25" style="44" customWidth="1"/>
+    <col min="14" max="15" width="18.375" style="32" customWidth="1"/>
+    <col min="16" max="16" width="20.25" style="32" customWidth="1"/>
     <col min="17" max="17" width="23.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2257,17 +2257,17 @@
       <c r="M1" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="N1" s="45" t="s">
+      <c r="N1" s="33" t="s">
         <v>134</v>
       </c>
-      <c r="O1" s="45" t="s">
+      <c r="O1" s="33" t="s">
         <v>133</v>
       </c>
-      <c r="P1" s="45" t="s">
+      <c r="P1" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="46" t="s">
-        <v>145</v>
+      <c r="Q1" s="34" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2300,15 +2300,15 @@
         <v>1</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>137</v>
-      </c>
-      <c r="N2" s="45">
+        <v>136</v>
+      </c>
+      <c r="N2" s="33">
         <v>147111</v>
       </c>
-      <c r="O2" s="45">
+      <c r="O2" s="33">
         <v>204521</v>
       </c>
-      <c r="P2" s="45">
+      <c r="P2" s="33">
         <v>161141</v>
       </c>
       <c r="Q2" s="26"/>
@@ -2343,15 +2343,15 @@
         <v>2</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="N3" s="45">
+        <v>143</v>
+      </c>
+      <c r="N3" s="33">
         <v>22604</v>
       </c>
-      <c r="O3" s="45">
+      <c r="O3" s="33">
         <v>90962</v>
       </c>
-      <c r="P3" s="45">
+      <c r="P3" s="33">
         <v>105670</v>
       </c>
       <c r="Q3" s="26"/>
@@ -2386,149 +2386,155 @@
         <v>1</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>138</v>
-      </c>
-      <c r="N4" s="45">
+        <v>137</v>
+      </c>
+      <c r="N4" s="33">
         <v>1652</v>
       </c>
-      <c r="O4" s="45">
+      <c r="O4" s="33">
         <v>9377</v>
       </c>
-      <c r="P4" s="45">
+      <c r="P4" s="33">
         <v>3420</v>
       </c>
       <c r="Q4" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M5" s="26" t="s">
-        <v>139</v>
-      </c>
-      <c r="N5" s="45">
+        <v>138</v>
+      </c>
+      <c r="N5" s="33">
         <v>5706</v>
       </c>
-      <c r="O5" s="45">
+      <c r="O5" s="33">
         <v>7751</v>
       </c>
-      <c r="P5" s="45">
+      <c r="P5" s="33">
         <v>5567</v>
       </c>
       <c r="Q5" s="26"/>
     </row>
     <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M6" s="26" t="s">
-        <v>136</v>
-      </c>
-      <c r="N6" s="45">
+        <v>135</v>
+      </c>
+      <c r="N6" s="33">
         <v>2456</v>
       </c>
-      <c r="O6" s="45">
+      <c r="O6" s="33">
         <v>2750</v>
       </c>
-      <c r="P6" s="45">
+      <c r="P6" s="33">
         <v>3576</v>
       </c>
-      <c r="Q6" s="26" t="s">
-        <v>135</v>
-      </c>
+      <c r="Q6" s="26"/>
     </row>
     <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M7" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="N7" s="45">
+        <v>139</v>
+      </c>
+      <c r="N7" s="33">
         <v>0</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="33">
         <v>3816</v>
       </c>
-      <c r="P7" s="45">
+      <c r="P7" s="33">
         <v>2255</v>
       </c>
       <c r="Q7" s="26"/>
     </row>
     <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M8" s="26" t="s">
-        <v>141</v>
-      </c>
-      <c r="N8" s="45">
+        <v>140</v>
+      </c>
+      <c r="N8" s="33">
         <v>0</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="33">
         <v>1699</v>
       </c>
-      <c r="P8" s="45">
+      <c r="P8" s="33">
         <v>1159</v>
       </c>
       <c r="Q8" s="26"/>
     </row>
     <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M9" s="26" t="s">
-        <v>142</v>
-      </c>
-      <c r="N9" s="45">
+        <v>141</v>
+      </c>
+      <c r="N9" s="33">
         <v>0</v>
       </c>
-      <c r="O9" s="45">
+      <c r="O9" s="33">
         <v>0</v>
       </c>
-      <c r="P9" s="45">
+      <c r="P9" s="33">
         <v>1709</v>
       </c>
       <c r="Q9" s="26"/>
     </row>
     <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M10" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="N10" s="45">
+        <v>142</v>
+      </c>
+      <c r="N10" s="33">
         <v>0</v>
       </c>
-      <c r="O10" s="45">
+      <c r="O10" s="33">
         <v>0</v>
       </c>
-      <c r="P10" s="45">
+      <c r="P10" s="33">
         <v>3644</v>
       </c>
       <c r="Q10" s="26"/>
     </row>
     <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M11" s="27" t="s">
-        <v>147</v>
-      </c>
-      <c r="N11" s="45">
+        <v>146</v>
+      </c>
+      <c r="N11" s="33">
         <v>1977</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="33">
         <v>2452</v>
       </c>
-      <c r="P11" s="45">
+      <c r="P11" s="33">
         <v>2025</v>
       </c>
       <c r="Q11" s="26"/>
     </row>
     <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M12" s="27" t="s">
-        <v>148</v>
-      </c>
-      <c r="N12" s="45"/>
-      <c r="O12" s="45"/>
-      <c r="P12" s="45"/>
-      <c r="Q12" s="26"/>
+        <v>147</v>
+      </c>
+      <c r="N12" s="33">
+        <v>91837</v>
+      </c>
+      <c r="O12" s="33">
+        <v>35048</v>
+      </c>
+      <c r="P12" s="33">
+        <v>13250</v>
+      </c>
+      <c r="Q12" s="26" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M13" s="27" t="s">
+        <v>148</v>
+      </c>
+      <c r="N13" s="33"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="26"/>
+    </row>
+    <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P14" s="35" t="s">
         <v>149</v>
-      </c>
-      <c r="N13" s="45"/>
-      <c r="O13" s="45"/>
-      <c r="P13" s="45"/>
-      <c r="Q13" s="26"/>
-    </row>
-    <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P14" s="47" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/pm_notes/4.文档模板/3.表格模板.xlsx
+++ b/pm_notes/4.文档模板/3.表格模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\4.文档模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34DE282-787E-45DB-863C-87D1A9C5FD2F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE97513-EBE4-484E-984D-AF86B057D22F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
   <si>
     <t>需求单项卡</t>
   </si>
@@ -587,27 +587,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>备注</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>去年9月葵域名注册量</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>2426</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>服务续费</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -624,7 +603,19 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>做好引导</t>
+    <t>我的福利</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>阳光小店</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>访问量（2018年9月）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动端</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -875,7 +866,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -978,9 +969,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1018,6 +1006,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1361,10 +1361,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40"/>
+      <c r="B1" s="39"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
@@ -1383,55 +1383,55 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="41" t="s">
+      <c r="A4" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="40"/>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="39"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="18" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="41" t="s">
+      <c r="A6" s="40" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="41"/>
+      <c r="B6" s="40"/>
     </row>
     <row r="7" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="38" t="s">
+      <c r="A7" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="39"/>
+      <c r="B7" s="38"/>
     </row>
     <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="37"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="38" t="s">
+      <c r="A9" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="39"/>
+      <c r="B9" s="38"/>
     </row>
     <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="37"/>
+      <c r="B10" s="36"/>
     </row>
     <row r="11" spans="1:3" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="38" t="s">
+      <c r="A11" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="39"/>
+      <c r="B11" s="38"/>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
@@ -1518,23 +1518,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="42" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="43"/>
+      <c r="J1" s="43"/>
+      <c r="K1" s="43"/>
+      <c r="L1" s="43"/>
+      <c r="M1" s="43"/>
+      <c r="N1" s="43"/>
+      <c r="O1" s="43"/>
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
@@ -1795,13 +1795,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
@@ -1936,16 +1936,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
     </row>
     <row r="2" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
@@ -2128,23 +2128,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="46" t="s">
         <v>109</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="B1" s="46"/>
+      <c r="C1" s="46"/>
+      <c r="D1" s="46"/>
+      <c r="E1" s="46"/>
+      <c r="F1" s="46"/>
+      <c r="G1" s="46"/>
+      <c r="H1" s="46"/>
+      <c r="I1" s="46"/>
+      <c r="J1" s="46"/>
+      <c r="K1" s="46"/>
+      <c r="L1" s="46"/>
+      <c r="M1" s="46"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
@@ -2207,10 +2207,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7F794C-512D-401A-8FB9-AB022CEF3767}">
-  <dimension ref="A1:Q14"/>
+  <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2222,10 +2222,11 @@
     <col min="13" max="13" width="16.875" customWidth="1"/>
     <col min="14" max="15" width="18.375" style="32" customWidth="1"/>
     <col min="16" max="16" width="20.25" style="32" customWidth="1"/>
-    <col min="17" max="17" width="23.5" customWidth="1"/>
+    <col min="18" max="18" width="13.375" style="47"/>
+    <col min="19" max="19" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
         <v>122</v>
       </c>
@@ -2266,11 +2267,14 @@
       <c r="P1" s="33" t="s">
         <v>132</v>
       </c>
-      <c r="Q1" s="34" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R1" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="S1" s="49" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
         <v>123</v>
       </c>
@@ -2311,9 +2315,14 @@
       <c r="P2" s="33">
         <v>161141</v>
       </c>
-      <c r="Q2" s="26"/>
-    </row>
-    <row r="3" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R2" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="S2" s="49">
+        <v>38284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
         <v>124</v>
       </c>
@@ -2354,9 +2363,14 @@
       <c r="P3" s="33">
         <v>105670</v>
       </c>
-      <c r="Q3" s="26"/>
-    </row>
-    <row r="4" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="R3" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="S3" s="49">
+        <v>95329</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
         <v>125</v>
       </c>
@@ -2397,11 +2411,8 @@
       <c r="P4" s="33">
         <v>3420</v>
       </c>
-      <c r="Q4" s="27" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M5" s="26" t="s">
         <v>138</v>
       </c>
@@ -2414,9 +2425,8 @@
       <c r="P5" s="33">
         <v>5567</v>
       </c>
-      <c r="Q5" s="26"/>
-    </row>
-    <row r="6" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M6" s="26" t="s">
         <v>135</v>
       </c>
@@ -2429,9 +2439,8 @@
       <c r="P6" s="33">
         <v>3576</v>
       </c>
-      <c r="Q6" s="26"/>
-    </row>
-    <row r="7" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M7" s="27" t="s">
         <v>139</v>
       </c>
@@ -2444,9 +2453,8 @@
       <c r="P7" s="33">
         <v>2255</v>
       </c>
-      <c r="Q7" s="26"/>
-    </row>
-    <row r="8" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M8" s="26" t="s">
         <v>140</v>
       </c>
@@ -2459,9 +2467,8 @@
       <c r="P8" s="33">
         <v>1159</v>
       </c>
-      <c r="Q8" s="26"/>
-    </row>
-    <row r="9" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="9" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M9" s="26" t="s">
         <v>141</v>
       </c>
@@ -2474,9 +2481,8 @@
       <c r="P9" s="33">
         <v>1709</v>
       </c>
-      <c r="Q9" s="26"/>
-    </row>
-    <row r="10" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M10" s="26" t="s">
         <v>142</v>
       </c>
@@ -2489,11 +2495,10 @@
       <c r="P10" s="33">
         <v>3644</v>
       </c>
-      <c r="Q10" s="26"/>
-    </row>
-    <row r="11" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M11" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N11" s="33">
         <v>1977</v>
@@ -2504,11 +2509,10 @@
       <c r="P11" s="33">
         <v>2025</v>
       </c>
-      <c r="Q11" s="26"/>
-    </row>
-    <row r="12" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M12" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="N12" s="33">
         <v>91837</v>
@@ -2519,22 +2523,18 @@
       <c r="P12" s="33">
         <v>13250</v>
       </c>
-      <c r="Q12" s="26" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M13" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="33"/>
       <c r="P13" s="33"/>
-      <c r="Q13" s="26"/>
-    </row>
-    <row r="14" spans="1:17" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="P14" s="35" t="s">
-        <v>149</v>
+    </row>
+    <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="P14" s="34" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>

--- a/pm_notes/4.文档模板/3.表格模板.xlsx
+++ b/pm_notes/4.文档模板/3.表格模板.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\my_github\word_notes\Work_Learn_Notes\pm_notes\4.文档模板\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE97513-EBE4-484E-984D-AF86B057D22F}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3CEA4A4-E28F-4E8F-A927-4E936F9C28AD}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10500" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23895" windowHeight="10500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="用户画像" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,8 @@
     <sheet name="竞品分析关注点" sheetId="4" r:id="rId4"/>
     <sheet name="产品设计体验记录" sheetId="5" r:id="rId5"/>
     <sheet name="测试用例模板" sheetId="6" r:id="rId6"/>
-    <sheet name="数据分析" sheetId="7" r:id="rId7"/>
+    <sheet name="数据统计" sheetId="7" r:id="rId7"/>
+    <sheet name="市场会议故事素材总结" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">测试用例模板!$A$2:$O$2</definedName>
@@ -90,7 +91,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="186">
   <si>
     <t>需求单项卡</t>
   </si>
@@ -131,13 +132,6 @@
     </r>
   </si>
   <si>
-    <t>老板提出的需求；
-用户直接反馈的需求；
-公司内部同事反馈的需求；
-通过数据分析／问卷调查得到的需求；
-自我驱动产生的需求</t>
-  </si>
-  <si>
     <t>需求产生场景（when&amp;where）_方便充分理解需求</t>
   </si>
   <si>
@@ -345,9 +339,6 @@
 竞品的主要功能，信息架构，特色功能，发展模式，优缺点</t>
   </si>
   <si>
-    <t>结构层与范围层</t>
-  </si>
-  <si>
     <t>页面流程设计
 页面内容设计</t>
   </si>
@@ -617,13 +608,161 @@
   <si>
     <t>移动端</t>
     <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>人物背景</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>事件</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>过年打麻将</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>春节在家打麻将，90后女生不怎么会玩，老爸站在她身后教她怎么赢</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>潮汕90后男</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>广州90后女</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>拜神</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>公公婆婆不停叫吃东西</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景载体</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>麻将</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>过年回家公公婆婆害怕媳妇吃不饱，一直叫她吃东西，把最好吃的，留给她；对于他俩很想要孙子的渴望，也不催媳妇</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>风俗：各家一起去拜神；被邻居询问是否有女朋友</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟奶奶（长辈）拉家常</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>跟奶奶聊天，奶奶很想了解孙子在外头工作顺不顺利；我也很关心奶奶身体好不好、关心她会不会用手机</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>妈妈催起床</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>过年在家就是懒，在外头工作辛苦了，回家就是玩，早上赖床，被妈妈催起床</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已婚女士</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程家里电脑玩游戏</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩游戏时，妈妈突然说要去亲戚家串门，可以通过手机远程玩游戏，听妈妈的话与不挂机两不误；去亲戚家串门无聊，远程家里电脑玩游戏</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>在大城市里放烟花</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>美食</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>手机</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>床</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>烟花</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>与男朋友一起偷偷买烟花，然后偷偷放烟花</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>老妈帮忙买回家/离家的机票</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>每年妈妈都会主动帮忙买回家的机票；与新疆的少数民族邻居一边吃桑葚一边教他们怎么用手机，增进民族情谊</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>桑葚树</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>儿孙们围一桌听爷爷奶奶说话</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>年夜饭，围在一起，听爷爷奶奶说生活感悟，满足老年人心底的被需要感，平淡却很温馨</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>年夜饭</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆女生</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>回老家过年</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构层与界面框架层</t>
+    <phoneticPr fontId="15" type="noConversion"/>
+  </si>
+  <si>
+    <t>老板提出的需求；
+用户直接反馈的需求；
+公司内部同事反馈的需求；
+通过数据分析／问卷调查得到的需求；
+自我驱动产生的需求</t>
+    <phoneticPr fontId="15" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -731,8 +870,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,6 +914,11 @@
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.499984740745262"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -861,12 +1013,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -972,6 +1127,18 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1008,21 +1175,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="57" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1348,8 +1519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:B7"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1361,10 +1532,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="27.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="39"/>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="15" t="s">
@@ -1383,102 +1554,102 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="18.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="40" t="s">
+      <c r="A4" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="40"/>
+      <c r="B4" s="44"/>
     </row>
     <row r="5" spans="1:3" ht="33" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="38"/>
-      <c r="C5" s="18" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="51" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="44" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="40" t="s">
+      <c r="B6" s="44"/>
+    </row>
+    <row r="7" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="40"/>
-    </row>
-    <row r="7" spans="1:3" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="37" t="s">
+      <c r="B7" s="42"/>
+    </row>
+    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="39" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="38"/>
-    </row>
-    <row r="8" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="35" t="s">
+      <c r="B8" s="40"/>
+    </row>
+    <row r="9" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="41" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="36"/>
-    </row>
-    <row r="9" spans="1:3" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="37" t="s">
+      <c r="B9" s="42"/>
+    </row>
+    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="39" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="38"/>
-    </row>
-    <row r="10" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="35" t="s">
+      <c r="B10" s="40"/>
+    </row>
+    <row r="11" spans="1:3" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="36"/>
-    </row>
-    <row r="11" spans="1:3" ht="38.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="38"/>
+      <c r="B11" s="42"/>
     </row>
     <row r="12" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="16" t="s">
         <v>14</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="54" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="19" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="19" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="16" t="s">
         <v>18</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="59.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="16" t="s">
         <v>22</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="63" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="23" t="s">
         <v>24</v>
-      </c>
-      <c r="B17" s="23" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1518,114 +1689,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="108" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="42" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="43"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="43"/>
-      <c r="J1" s="43"/>
-      <c r="K1" s="43"/>
-      <c r="L1" s="43"/>
-      <c r="M1" s="43"/>
-      <c r="N1" s="43"/>
-      <c r="O1" s="43"/>
+      <c r="A1" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
     </row>
     <row r="2" spans="1:15" s="10" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="C2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="D2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="E2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="G2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="I2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="J2" s="12" t="s">
         <v>35</v>
       </c>
-      <c r="J2" s="12" t="s">
+      <c r="K2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="K2" s="12" t="s">
+      <c r="L2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="12" t="s">
+      <c r="M2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="12" t="s">
+      <c r="N2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="N2" s="12" t="s">
+      <c r="O2" s="12" t="s">
         <v>40</v>
-      </c>
-      <c r="O2" s="12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B3" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="C3" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="D3" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>49</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>50</v>
       </c>
       <c r="J3" s="14">
         <v>43132</v>
       </c>
       <c r="K3" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="13" t="s">
         <v>51</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>52</v>
       </c>
       <c r="M3" s="13"/>
       <c r="N3" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="21" customHeight="1" x14ac:dyDescent="0.15">
@@ -1781,12 +1952,12 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="16.375" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
     <col min="2" max="2" width="17.75" customWidth="1"/>
     <col min="3" max="3" width="13" customWidth="1"/>
     <col min="4" max="4" width="24.75" customWidth="1"/>
@@ -1795,114 +1966,114 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="44" t="s">
-        <v>55</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
+      <c r="A1" s="48" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B2" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="D2" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="E2" s="7" t="s">
         <v>59</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="E3" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="C4" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="D4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="E4" s="9" t="s">
         <v>69</v>
       </c>
-      <c r="E4" s="9" t="s">
+    </row>
+    <row r="5" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="55" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="8" t="s">
+      <c r="C5" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="D5" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="E5" s="9" t="s">
         <v>73</v>
-      </c>
-      <c r="D5" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="E6" s="9" t="s">
         <v>78</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="35.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="E7" s="9" t="s">
         <v>82</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -1936,70 +2107,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="45"/>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
-      <c r="H1" s="45"/>
+      <c r="A1" s="49" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
     </row>
     <row r="2" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D2" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="F2" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="G2" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="D3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="5" t="s">
         <v>95</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="F3" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="G3" s="5" t="s">
         <v>97</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>99</v>
       </c>
       <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2011,7 +2182,7 @@
     </row>
     <row r="5" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2023,7 +2194,7 @@
     </row>
     <row r="6" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2035,7 +2206,7 @@
     </row>
     <row r="7" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2047,7 +2218,7 @@
     </row>
     <row r="8" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2059,7 +2230,7 @@
     </row>
     <row r="9" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2071,7 +2242,7 @@
     </row>
     <row r="10" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2083,7 +2254,7 @@
     </row>
     <row r="11" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
@@ -2095,7 +2266,7 @@
     </row>
     <row r="12" spans="1:8" ht="21.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
@@ -2128,69 +2299,69 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="45.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
-        <v>109</v>
-      </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
-      <c r="J1" s="46"/>
-      <c r="K1" s="46"/>
-      <c r="L1" s="46"/>
-      <c r="M1" s="46"/>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="A1" s="50" t="s">
+        <v>107</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+      <c r="L1" s="50"/>
+      <c r="M1" s="50"/>
+      <c r="N1" s="50"/>
+      <c r="O1" s="50"/>
     </row>
     <row r="2" spans="1:16" s="1" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="N2" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="O2" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="P2" s="3"/>
     </row>
@@ -2209,8 +2380,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A7F794C-512D-401A-8FB9-AB022CEF3767}">
   <dimension ref="A1:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.375" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2222,61 +2393,61 @@
     <col min="13" max="13" width="16.875" customWidth="1"/>
     <col min="14" max="15" width="18.375" style="32" customWidth="1"/>
     <col min="16" max="16" width="20.25" style="32" customWidth="1"/>
-    <col min="18" max="18" width="13.375" style="47"/>
+    <col min="18" max="18" width="13.375" style="35"/>
     <col min="19" max="19" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="26" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C1" s="27"/>
       <c r="D1" s="28" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E1" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>125</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="30" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="J1" s="30" t="s">
         <v>127</v>
       </c>
-      <c r="H1" s="30" t="s">
-        <v>126</v>
-      </c>
-      <c r="I1" s="30" t="s">
+      <c r="K1" s="30" t="s">
         <v>128</v>
       </c>
-      <c r="J1" s="30" t="s">
+      <c r="M1" s="26" t="s">
         <v>129</v>
       </c>
-      <c r="K1" s="30" t="s">
+      <c r="N1" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="O1" s="33" t="s">
+        <v>131</v>
+      </c>
+      <c r="P1" s="33" t="s">
         <v>130</v>
       </c>
-      <c r="M1" s="26" t="s">
-        <v>131</v>
-      </c>
-      <c r="N1" s="33" t="s">
-        <v>134</v>
-      </c>
-      <c r="O1" s="33" t="s">
-        <v>133</v>
-      </c>
-      <c r="P1" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="R1" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="S1" s="49" t="s">
-        <v>150</v>
+      <c r="R1" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="S1" s="37" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="26" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B2" s="26">
         <v>3895</v>
@@ -2304,7 +2475,7 @@
         <v>1</v>
       </c>
       <c r="M2" s="26" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="N2" s="33">
         <v>147111</v>
@@ -2315,16 +2486,16 @@
       <c r="P2" s="33">
         <v>161141</v>
       </c>
-      <c r="R2" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="S2" s="49">
+      <c r="R2" s="38" t="s">
+        <v>146</v>
+      </c>
+      <c r="S2" s="37">
         <v>38284</v>
       </c>
     </row>
     <row r="3" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="26" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" s="26">
         <v>5195</v>
@@ -2352,7 +2523,7 @@
         <v>2</v>
       </c>
       <c r="M3" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="N3" s="33">
         <v>22604</v>
@@ -2363,16 +2534,16 @@
       <c r="P3" s="33">
         <v>105670</v>
       </c>
-      <c r="R3" s="50" t="s">
-        <v>149</v>
-      </c>
-      <c r="S3" s="49">
+      <c r="R3" s="38" t="s">
+        <v>147</v>
+      </c>
+      <c r="S3" s="37">
         <v>95329</v>
       </c>
     </row>
     <row r="4" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="26" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B4" s="26">
         <v>611</v>
@@ -2400,7 +2571,7 @@
         <v>1</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="N4" s="33">
         <v>1652</v>
@@ -2414,7 +2585,7 @@
     </row>
     <row r="5" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M5" s="26" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="N5" s="33">
         <v>5706</v>
@@ -2428,7 +2599,7 @@
     </row>
     <row r="6" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M6" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="N6" s="33">
         <v>2456</v>
@@ -2442,7 +2613,7 @@
     </row>
     <row r="7" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M7" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N7" s="33">
         <v>0</v>
@@ -2456,7 +2627,7 @@
     </row>
     <row r="8" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M8" s="26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="N8" s="33">
         <v>0</v>
@@ -2470,7 +2641,7 @@
     </row>
     <row r="9" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M9" s="26" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="N9" s="33">
         <v>0</v>
@@ -2484,7 +2655,7 @@
     </row>
     <row r="10" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M10" s="26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="N10" s="33">
         <v>0</v>
@@ -2498,7 +2669,7 @@
     </row>
     <row r="11" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M11" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="N11" s="33">
         <v>1977</v>
@@ -2512,7 +2683,7 @@
     </row>
     <row r="12" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M12" s="27" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="N12" s="33">
         <v>91837</v>
@@ -2526,7 +2697,7 @@
     </row>
     <row r="13" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M13" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="N13" s="33"/>
       <c r="O13" s="33"/>
@@ -2534,7 +2705,158 @@
     </row>
     <row r="14" spans="1:19" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="P14" s="34" t="s">
-        <v>147</v>
+        <v>145</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="13" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C59E0E59-F9C7-4DBA-9CC3-D2B586257C8C}">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="26.875" customWidth="1"/>
+    <col min="3" max="3" width="44.875" style="18" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="53" t="s">
+        <v>150</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C1" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="53" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="26" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="21" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="26" t="s">
+        <v>155</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="52" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="26"/>
+    </row>
+    <row r="4" spans="1:4" ht="48" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="27" t="s">
+        <v>167</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>158</v>
+      </c>
+      <c r="C4" s="52" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="26"/>
+      <c r="B5" s="27" t="s">
+        <v>163</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="26"/>
+      <c r="B6" s="27" t="s">
+        <v>165</v>
+      </c>
+      <c r="C6" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" s="27" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="56.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>168</v>
+      </c>
+      <c r="C7" s="52" t="s">
+        <v>169</v>
+      </c>
+      <c r="D7" s="26"/>
+    </row>
+    <row r="8" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="26"/>
+      <c r="B8" s="27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="52" t="s">
+        <v>175</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>176</v>
+      </c>
+      <c r="C9" s="52" t="s">
+        <v>177</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="26"/>
+      <c r="B10" s="27" t="s">
+        <v>179</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>180</v>
+      </c>
+      <c r="D10" s="27" t="s">
+        <v>181</v>
       </c>
     </row>
   </sheetData>
